--- a/WebOnlineAptitudeTest/Content/uploadFile/DataCandidateExample.xlsx
+++ b/WebOnlineAptitudeTest/Content/uploadFile/DataCandidateExample.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>Birthday</t>
   </si>
@@ -42,42 +42,6 @@
   </si>
   <si>
     <t>Can Tho</t>
-  </si>
-  <si>
-    <t>abc01@gmail.com</t>
-  </si>
-  <si>
-    <t>abc02@gmail.com</t>
-  </si>
-  <si>
-    <t>abc03@gmail.com</t>
-  </si>
-  <si>
-    <t>abc04@gmail.com</t>
-  </si>
-  <si>
-    <t>abc01</t>
-  </si>
-  <si>
-    <t>abc02</t>
-  </si>
-  <si>
-    <t>abc03</t>
-  </si>
-  <si>
-    <t>abc04</t>
-  </si>
-  <si>
-    <t>Abc 01</t>
-  </si>
-  <si>
-    <t>Abc 02</t>
-  </si>
-  <si>
-    <t>Abc 03</t>
-  </si>
-  <si>
-    <t>Abc 04</t>
   </si>
   <si>
     <r>
@@ -164,6 +128,48 @@
   </si>
   <si>
     <t>Ba Vi</t>
+  </si>
+  <si>
+    <t>vungka321@gmail.com</t>
+  </si>
+  <si>
+    <t>Tran Van Vung</t>
+  </si>
+  <si>
+    <t>vung01</t>
+  </si>
+  <si>
+    <t>c1908g2@gmail.com</t>
+  </si>
+  <si>
+    <t>C1908g2</t>
+  </si>
+  <si>
+    <t>pitran6969@gmail.com</t>
+  </si>
+  <si>
+    <t>Pi Tran</t>
+  </si>
+  <si>
+    <t>pitran01</t>
+  </si>
+  <si>
+    <t>vodanh10789@gmail.com</t>
+  </si>
+  <si>
+    <t>Nguyen Thi C</t>
+  </si>
+  <si>
+    <t>nguyenc</t>
+  </si>
+  <si>
+    <t>c1908g2.2@gmail.com</t>
+  </si>
+  <si>
+    <t>C1908g2.2</t>
+  </si>
+  <si>
+    <t>demo01</t>
   </si>
 </sst>
 </file>
@@ -233,10 +239,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -518,10 +522,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -532,16 +536,16 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
@@ -553,7 +557,7 @@
         <v>2</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>3</v>
@@ -564,13 +568,13 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>6</v>
+      <c r="C2" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="D2">
         <v>123</v>
@@ -583,21 +587,21 @@
         <v>5</v>
       </c>
       <c r="G2">
-        <v>678695120</v>
-      </c>
-      <c r="H2" s="4" t="b">
+        <v>678695530</v>
+      </c>
+      <c r="H2" s="3" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>7</v>
+        <v>17</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="D3">
         <v>654321</v>
@@ -607,10 +611,10 @@
         <v>37297</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="G3">
-        <v>355967964</v>
+        <v>967999999</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -618,13 +622,13 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>8</v>
+        <v>19</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="D4">
         <v>123</v>
@@ -639,36 +643,58 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>9</v>
+        <v>22</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="D5">
         <v>4321</v>
       </c>
       <c r="E5" s="2">
-        <f t="shared" ref="E5" si="0">DATE(2002,2,10)</f>
+        <f t="shared" ref="E5:E6" si="0">DATE(2002,2,10)</f>
         <v>37297</v>
       </c>
       <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H5" t="b">
+      <c r="D6">
+        <v>123</v>
+      </c>
+      <c r="E6" s="2">
+        <f t="shared" si="0"/>
+        <v>37297</v>
+      </c>
+      <c r="H6" t="b">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1"/>
-    <hyperlink ref="C2" r:id="rId2"/>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
     <hyperlink ref="C4" r:id="rId3"/>
     <hyperlink ref="C5" r:id="rId4"/>
+    <hyperlink ref="C6" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>